--- a/data verification workbook.xlsx
+++ b/data verification workbook.xlsx
@@ -1894,13 +1894,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P195" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
-  <autoFilter ref="A1:P195">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="10 Pin"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:P195"/>
   <sortState ref="A2:N195">
     <sortCondition ref="C2:C195"/>
     <sortCondition ref="I2:I195"/>
@@ -2219,7 +2213,7 @@
   <dimension ref="A1:X282"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="M1" sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2651,7 +2645,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="7" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>341</v>
       </c>
@@ -2716,7 +2710,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="8" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>341</v>
       </c>
@@ -2781,7 +2775,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="9" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>341</v>
       </c>
@@ -2852,7 +2846,7 @@
         <v>221.25</v>
       </c>
     </row>
-    <row r="10" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>202</v>
       </c>
@@ -2920,7 +2914,7 @@
         <v>208.2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>304</v>
       </c>
@@ -2999,7 +2993,7 @@
         <v>221.25</v>
       </c>
     </row>
-    <row r="13" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>299</v>
       </c>
@@ -3057,7 +3051,7 @@
         <v>208.2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>299</v>
       </c>
@@ -3102,7 +3096,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>299</v>
       </c>
@@ -3147,7 +3141,7 @@
         <v>64.5</v>
       </c>
     </row>
-    <row r="16" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>299</v>
       </c>
@@ -3525,7 +3519,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>288</v>
       </c>
@@ -3567,7 +3561,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>288</v>
       </c>
@@ -3609,7 +3603,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>288</v>
       </c>
@@ -3651,7 +3645,7 @@
         <v>64.5</v>
       </c>
     </row>
-    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>288</v>
       </c>
@@ -3699,7 +3693,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>219</v>
       </c>
@@ -3744,7 +3738,7 @@
         <v>18.95</v>
       </c>
     </row>
-    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>219</v>
       </c>
@@ -3789,7 +3783,7 @@
         <v>37.9</v>
       </c>
     </row>
-    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>219</v>
       </c>
@@ -3840,7 +3834,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>180</v>
       </c>
@@ -3885,7 +3879,7 @@
         <v>22.25</v>
       </c>
     </row>
-    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>180</v>
       </c>
@@ -3936,7 +3930,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>336</v>
       </c>
@@ -3978,7 +3972,7 @@
         <v>14.75</v>
       </c>
     </row>
-    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>336</v>
       </c>
@@ -4031,7 +4025,7 @@
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
     </row>
-    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>185</v>
       </c>
@@ -4180,7 +4174,7 @@
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
     </row>
-    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>206</v>
       </c>
@@ -4231,7 +4225,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>206</v>
       </c>
@@ -4277,7 +4271,7 @@
       </c>
       <c r="P41" s="4"/>
     </row>
-    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>206</v>
       </c>
@@ -4322,7 +4316,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>206</v>
       </c>
@@ -4373,7 +4367,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>206</v>
       </c>
@@ -4424,7 +4418,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>240</v>
       </c>
@@ -4470,7 +4464,7 @@
       </c>
       <c r="P45" s="4"/>
     </row>
-    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>240</v>
       </c>
@@ -4515,7 +4509,7 @@
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>240</v>
       </c>
@@ -4566,7 +4560,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>246</v>
       </c>
@@ -4763,7 +4757,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>235</v>
       </c>
@@ -4808,7 +4802,7 @@
         <v>18.95</v>
       </c>
     </row>
-    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>235</v>
       </c>
@@ -4949,7 +4943,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>356</v>
       </c>
@@ -5002,7 +4996,7 @@
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
     </row>
-    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>278</v>
       </c>
@@ -5041,7 +5035,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>278</v>
       </c>
@@ -5080,7 +5074,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>278</v>
       </c>
@@ -5119,7 +5113,7 @@
         <v>64.5</v>
       </c>
     </row>
-    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>278</v>
       </c>
@@ -5164,7 +5158,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>163</v>
       </c>
@@ -5212,7 +5206,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>171</v>
       </c>
@@ -5257,7 +5251,7 @@
         <v>22.25</v>
       </c>
     </row>
-    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>171</v>
       </c>
@@ -5313,7 +5307,7 @@
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
     </row>
-    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>295</v>
       </c>
@@ -5355,7 +5349,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>295</v>
       </c>
@@ -5397,7 +5391,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>295</v>
       </c>
@@ -5535,7 +5529,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>327</v>
       </c>
@@ -5577,7 +5571,7 @@
         <v>15.25</v>
       </c>
     </row>
-    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>327</v>
       </c>
@@ -5619,7 +5613,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>327</v>
       </c>
@@ -5661,7 +5655,7 @@
         <v>45.75</v>
       </c>
     </row>
-    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>327</v>
       </c>
@@ -6390,7 +6384,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>225</v>
       </c>
@@ -6435,7 +6429,7 @@
         <v>18.95</v>
       </c>
     </row>
-    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>225</v>
       </c>
@@ -6480,7 +6474,7 @@
         <v>37.9</v>
       </c>
     </row>
-    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>225</v>
       </c>
@@ -6526,7 +6520,7 @@
       </c>
       <c r="P93" s="4"/>
     </row>
-    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>225</v>
       </c>
@@ -6577,7 +6571,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>225</v>
       </c>
@@ -6622,7 +6616,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>225</v>
       </c>
@@ -6667,7 +6661,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>225</v>
       </c>
@@ -6712,7 +6706,7 @@
         <v>64.5</v>
       </c>
     </row>
-    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>225</v>
       </c>
@@ -6763,7 +6757,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>225</v>
       </c>
@@ -6808,7 +6802,7 @@
         <v>14.75</v>
       </c>
     </row>
-    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>225</v>
       </c>
@@ -6853,7 +6847,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>225</v>
       </c>
@@ -6899,7 +6893,7 @@
       </c>
       <c r="P101" s="4"/>
     </row>
-    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>225</v>
       </c>
@@ -7046,7 +7040,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>319</v>
       </c>
@@ -7088,7 +7082,7 @@
         <v>15.25</v>
       </c>
     </row>
-    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>319</v>
       </c>
@@ -7130,7 +7124,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>319</v>
       </c>
@@ -7364,7 +7358,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>251</v>
       </c>
@@ -7409,7 +7403,7 @@
         <v>17.350000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>251</v>
       </c>
@@ -7460,7 +7454,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>261</v>
       </c>
@@ -7607,7 +7601,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>314</v>
       </c>
@@ -7652,7 +7646,7 @@
         <v>15.25</v>
       </c>
     </row>
-    <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>314</v>
       </c>
@@ -7889,7 +7883,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>346</v>
       </c>
@@ -7934,7 +7928,7 @@
         <v>14.75</v>
       </c>
     </row>
-    <row r="124" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>346</v>
       </c>
@@ -7979,7 +7973,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>346</v>
       </c>
@@ -8187,7 +8181,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="132" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>351</v>
       </c>
@@ -8233,7 +8227,7 @@
       </c>
       <c r="P132" s="4"/>
     </row>
-    <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>351</v>
       </c>
@@ -8284,7 +8278,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>73</v>
       </c>
@@ -8327,7 +8321,7 @@
       </c>
       <c r="P134" s="4"/>
     </row>
-    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>73</v>
       </c>
@@ -8375,7 +8369,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>138</v>
       </c>
@@ -8557,7 +8551,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>309</v>
       </c>
@@ -8600,7 +8594,7 @@
       </c>
       <c r="P140" s="4"/>
     </row>
-    <row r="141" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>309</v>
       </c>
@@ -8643,7 +8637,7 @@
       </c>
       <c r="P141" s="4"/>
     </row>
-    <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>309</v>
       </c>
@@ -8686,7 +8680,7 @@
       </c>
       <c r="P142" s="4"/>
     </row>
-    <row r="143" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>309</v>
       </c>
@@ -8734,7 +8728,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>331</v>
       </c>
@@ -8785,7 +8779,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="145" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>176</v>
       </c>
@@ -8828,7 +8822,7 @@
       </c>
       <c r="P145" s="4"/>
     </row>
-    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>176</v>
       </c>
@@ -8871,7 +8865,7 @@
       </c>
       <c r="P146" s="4"/>
     </row>
-    <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>176</v>
       </c>
@@ -8914,7 +8908,7 @@
       </c>
       <c r="P147" s="4"/>
     </row>
-    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>176</v>
       </c>
@@ -8962,7 +8956,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>215</v>
       </c>
@@ -9010,7 +9004,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>192</v>
       </c>
@@ -9056,7 +9050,7 @@
       </c>
       <c r="P150" s="4"/>
     </row>
-    <row r="151" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>192</v>
       </c>
@@ -9107,7 +9101,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="152" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>256</v>
       </c>
@@ -9153,7 +9147,7 @@
       </c>
       <c r="P152" s="4"/>
     </row>
-    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>256</v>
       </c>
@@ -9204,7 +9198,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>323</v>
       </c>
@@ -9672,7 +9666,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>271</v>
       </c>
@@ -9718,7 +9712,7 @@
       </c>
       <c r="P164" s="4"/>
     </row>
-    <row r="165" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>271</v>
       </c>
@@ -9866,7 +9860,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>197</v>
       </c>
@@ -9912,7 +9906,7 @@
       </c>
       <c r="P168" s="4"/>
     </row>
-    <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>197</v>
       </c>
@@ -9958,7 +9952,7 @@
       </c>
       <c r="P169" s="4"/>
     </row>
-    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>197</v>
       </c>
@@ -10004,7 +9998,7 @@
       </c>
       <c r="P170" s="4"/>
     </row>
-    <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>197</v>
       </c>
@@ -10055,7 +10049,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>211</v>
       </c>
@@ -10103,7 +10097,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="173" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>230</v>
       </c>
@@ -10629,7 +10623,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>281</v>
       </c>
@@ -10675,7 +10669,7 @@
       </c>
       <c r="P184" s="4"/>
     </row>
-    <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>281</v>
       </c>
@@ -10869,7 +10863,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>57</v>
       </c>
@@ -10915,7 +10909,7 @@
       </c>
       <c r="P189" s="4"/>
     </row>
-    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>57</v>
       </c>
@@ -10961,7 +10955,7 @@
       </c>
       <c r="P190" s="4"/>
     </row>
-    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>57</v>
       </c>
@@ -11012,7 +11006,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>292</v>
       </c>
@@ -11052,7 +11046,7 @@
       </c>
       <c r="P192" s="4"/>
     </row>
-    <row r="193" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>292</v>
       </c>
@@ -11092,7 +11086,7 @@
       </c>
       <c r="P193" s="4"/>
     </row>
-    <row r="194" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>292</v>
       </c>
@@ -11132,7 +11126,7 @@
       </c>
       <c r="P194" s="4"/>
     </row>
-    <row r="195" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>292</v>
       </c>
